--- a/matchs/common-match-data.xlsx
+++ b/matchs/common-match-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="19422" windowHeight="10431" activeTab="2"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="19422" windowHeight="10431"/>
   </bookViews>
   <sheets>
     <sheet name="30-99" sheetId="1" r:id="rId1"/>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D2" s="4">
         <v>130</v>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D3" s="4">
         <v>130</v>
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D4" s="4">
         <v>130</v>
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D5" s="4">
         <v>130</v>
@@ -620,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D6" s="4">
         <v>130</v>
@@ -634,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D7" s="4">
         <v>130</v>
@@ -648,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D8" s="4">
         <v>130</v>
@@ -662,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D9" s="4">
         <v>130</v>
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D10" s="4">
         <v>130</v>
@@ -690,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D11" s="4">
         <v>130</v>
@@ -704,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D12" s="4">
         <v>130</v>
@@ -718,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D13" s="4">
         <v>130</v>
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D14" s="4">
         <v>130</v>
@@ -746,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D15" s="4">
         <v>130</v>
@@ -760,7 +760,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D16" s="4">
         <v>130</v>
@@ -774,7 +774,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D17" s="4">
         <v>130</v>
@@ -788,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D18" s="4">
         <v>130</v>
@@ -802,7 +802,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D19" s="4">
         <v>130</v>
@@ -816,7 +816,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D20" s="4">
         <v>130</v>
@@ -830,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D21" s="4">
         <v>130</v>
@@ -844,7 +844,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D22" s="4">
         <v>130</v>
@@ -858,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D23" s="4">
         <v>130</v>
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D24" s="4">
         <v>130</v>
@@ -886,7 +886,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D25" s="4">
         <v>130</v>
@@ -900,7 +900,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D26" s="4">
         <v>130</v>
@@ -914,7 +914,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D27" s="4">
         <v>130</v>
@@ -928,7 +928,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D28" s="4">
         <v>130</v>
@@ -942,7 +942,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D29" s="4">
         <v>130</v>
@@ -956,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D30" s="4">
         <v>130</v>
@@ -970,7 +970,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D31" s="4">
         <v>130</v>
@@ -984,7 +984,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="3">
-        <v>0.03</v>
+        <v>2.75E-2</v>
       </c>
       <c r="D32" s="4">
         <v>130</v>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D2" s="4">
         <v>130</v>
@@ -1043,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D3" s="4">
         <v>130</v>
@@ -1057,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D4" s="4">
         <v>130</v>
@@ -1071,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D5" s="4">
         <v>130</v>
@@ -1085,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="4">
         <v>130</v>
@@ -1099,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D7" s="4">
         <v>130</v>
@@ -1113,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D8" s="4">
         <v>130</v>
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D9" s="4">
         <v>130</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D10" s="4">
         <v>130</v>
@@ -1155,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D11" s="4">
         <v>130</v>
@@ -1169,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D12" s="4">
         <v>130</v>
@@ -1183,7 +1183,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D13" s="4">
         <v>130</v>
@@ -1197,7 +1197,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D14" s="4">
         <v>130</v>
@@ -1211,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D15" s="4">
         <v>130</v>
@@ -1225,7 +1225,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D16" s="4">
         <v>130</v>
@@ -1239,7 +1239,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D17" s="4">
         <v>130</v>
@@ -1253,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D18" s="4">
         <v>130</v>
@@ -1267,7 +1267,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D19" s="4">
         <v>130</v>
@@ -1281,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D20" s="4">
         <v>130</v>
@@ -1295,7 +1295,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D21" s="4">
         <v>130</v>
@@ -1309,7 +1309,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D22" s="4">
         <v>130</v>
@@ -1323,7 +1323,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D23" s="4">
         <v>130</v>
@@ -1337,7 +1337,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D24" s="4">
         <v>130</v>
@@ -1351,7 +1351,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D25" s="4">
         <v>130</v>
@@ -1365,7 +1365,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D26" s="4">
         <v>130</v>
@@ -1379,7 +1379,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D27" s="4">
         <v>130</v>
@@ -1393,7 +1393,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D28" s="4">
         <v>130</v>
@@ -1407,7 +1407,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D29" s="4">
         <v>130</v>
@@ -1421,7 +1421,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D30" s="4">
         <v>130</v>
@@ -1435,7 +1435,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D31" s="4">
         <v>130</v>
@@ -1449,7 +1449,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="3">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D32" s="4">
         <v>130</v>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
